--- a/rolar_opcoes_ELET3_ELETG454_ELETH460.xlsx
+++ b/rolar_opcoes_ELET3_ELETG454_ELETH460.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-07-06" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>44.8</v>
+        <v>42.7</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.18</v>
+        <v>0.15</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -572,28 +572,28 @@
         <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>4.11</v>
+        <v>1.13</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="G4" t="n">
         <v>0.3900000000000006</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8550756413067351</v>
+        <v>0.86</v>
       </c>
       <c r="I4" t="n">
-        <v>3.320000000000001</v>
+        <v>1.370000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>7.279105459329097</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.930000000000001</v>
+        <v>0.9799999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -609,28 +609,28 @@
         <v>46.75</v>
       </c>
       <c r="D5" t="n">
-        <v>1.79</v>
+        <v>0.92</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G5" t="n">
         <v>1.140000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2.499451874588909</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.750000000000001</v>
+        <v>1.910000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>3.836877877658409</v>
+        <v>4.19</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6100000000000001</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="6">
@@ -646,28 +646,28 @@
         <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>1.76</v>
+        <v>0.86</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G6" t="n">
         <v>1.390000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>3.047577285682967</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
-        <v>1.970000000000001</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>4.319228239421181</v>
+        <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7">
@@ -683,28 +683,28 @@
         <v>47.75</v>
       </c>
       <c r="D7" t="n">
-        <v>1.45</v>
+        <v>0.72</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G7" t="n">
         <v>2.140000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>4.691953518965142</v>
+        <v>4.69</v>
       </c>
       <c r="I7" t="n">
-        <v>2.410000000000001</v>
+        <v>2.710000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>5.283928962946724</v>
+        <v>5.94</v>
       </c>
       <c r="K7" t="n">
-        <v>0.27</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="8">
@@ -720,28 +720,28 @@
         <v>48</v>
       </c>
       <c r="D8" t="n">
-        <v>1.42</v>
+        <v>0.75</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="G8" t="n">
         <v>2.390000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>5.2400789300592</v>
+        <v>5.24</v>
       </c>
       <c r="I8" t="n">
-        <v>2.630000000000001</v>
+        <v>2.990000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>5.766279324709496</v>
+        <v>6.56</v>
       </c>
       <c r="K8" t="n">
-        <v>0.24</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
